--- a/biology/Botanique/Wychwood/Wychwood.xlsx
+++ b/biology/Botanique/Wychwood/Wychwood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wychwood est une forêt située dans l'ouest de l'Oxfordshire, en Angleterre, près de la ville de Charlbury.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le toponyme Wychwood est d'origine vieil-anglaise et désigne la forêt des Hwicce, un peuple anglo-saxon établi dans l'ouest des Midlands au haut Moyen Âge. Il est attesté sous la forme Huiccewudu en 840[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le toponyme Wychwood est d'origine vieil-anglaise et désigne la forêt des Hwicce, un peuple anglo-saxon établi dans l'ouest des Midlands au haut Moyen Âge. Il est attesté sous la forme Huiccewudu en 840.
 Trois villages voisins ont un nom qui fait référence à la forêt : Ascott-under-Wychwood, Milton-under-Wychwood et Shipton-under-Wychwood.
 </t>
         </is>
@@ -543,11 +557,13 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La forêt de Wychwood est protégée à plusieurs titres :
-une surface de 501,7 hectares constitue un site d'intérêt scientifique particulier[2] ;
-une surface de 263,3 hectares constitue une réserve naturelle nationale (en)[3]</t>
+une surface de 501,7 hectares constitue un site d'intérêt scientifique particulier ;
+une surface de 263,3 hectares constitue une réserve naturelle nationale (en)</t>
         </is>
       </c>
     </row>
